--- a/data/pca/factorExposure/factorExposure_2017-02-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01849578778822843</v>
+        <v>0.01106922806690415</v>
       </c>
       <c r="C2">
-        <v>0.01790521376494977</v>
+        <v>-0.04028294930132712</v>
       </c>
       <c r="D2">
-        <v>-0.03367471007457824</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03142575102563933</v>
+      </c>
+      <c r="E2">
+        <v>0.05098735172598756</v>
+      </c>
+      <c r="F2">
+        <v>-0.004629357431342587</v>
+      </c>
+      <c r="G2">
+        <v>0.114189737262653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04266884236698096</v>
+        <v>0.03892175467016831</v>
       </c>
       <c r="C3">
-        <v>-0.00911336413797206</v>
+        <v>-0.1006261934891233</v>
       </c>
       <c r="D3">
-        <v>-0.111441269719618</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01783374408047141</v>
+      </c>
+      <c r="E3">
+        <v>0.09767074425244618</v>
+      </c>
+      <c r="F3">
+        <v>-0.01881025552914066</v>
+      </c>
+      <c r="G3">
+        <v>0.1317104612534802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03842502789223144</v>
+        <v>0.05518155740484002</v>
       </c>
       <c r="C4">
-        <v>0.007231661576851537</v>
+        <v>-0.06627816297874592</v>
       </c>
       <c r="D4">
-        <v>-0.07238848004454054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02546724112748763</v>
+      </c>
+      <c r="E4">
+        <v>0.0411999868630286</v>
+      </c>
+      <c r="F4">
+        <v>-0.001962614484433336</v>
+      </c>
+      <c r="G4">
+        <v>0.1032354433720234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0112195348223603</v>
+        <v>0.0344846969033451</v>
       </c>
       <c r="C6">
-        <v>0.009533686148376689</v>
+        <v>-0.05176299977066472</v>
       </c>
       <c r="D6">
-        <v>-0.05453030768015851</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01833844236594667</v>
+      </c>
+      <c r="E6">
+        <v>0.0468417758974025</v>
+      </c>
+      <c r="F6">
+        <v>-0.003191000703645614</v>
+      </c>
+      <c r="G6">
+        <v>0.08650149579376569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.002389871905600164</v>
+        <v>0.02066784499761872</v>
       </c>
       <c r="C7">
-        <v>0.01001476976746088</v>
+        <v>-0.03815941339118589</v>
       </c>
       <c r="D7">
-        <v>-0.03504640118077949</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01484522254897256</v>
+      </c>
+      <c r="E7">
+        <v>0.01842867530423421</v>
+      </c>
+      <c r="F7">
+        <v>0.003146585531047189</v>
+      </c>
+      <c r="G7">
+        <v>0.1266671621989389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.001323300051655869</v>
+        <v>0.003774818196007881</v>
       </c>
       <c r="C8">
-        <v>0.001278641957842019</v>
+        <v>-0.02330567194645043</v>
       </c>
       <c r="D8">
-        <v>0.004277008908594949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004090323403680039</v>
+      </c>
+      <c r="E8">
+        <v>0.03167630700331788</v>
+      </c>
+      <c r="F8">
+        <v>-0.001573607463692659</v>
+      </c>
+      <c r="G8">
+        <v>0.06789909916241142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01410965461518095</v>
+        <v>0.03286377533880775</v>
       </c>
       <c r="C9">
-        <v>0.007933639585716743</v>
+        <v>-0.04763814341702829</v>
       </c>
       <c r="D9">
-        <v>-0.04109215567088209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.016767528339573</v>
+      </c>
+      <c r="E9">
+        <v>0.02776439367202618</v>
+      </c>
+      <c r="F9">
+        <v>0.0007883678581473986</v>
+      </c>
+      <c r="G9">
+        <v>0.1045753415373009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1303083918476477</v>
+        <v>0.09952838660612362</v>
       </c>
       <c r="C10">
-        <v>-0.04112588311271129</v>
+        <v>0.1846425283423045</v>
       </c>
       <c r="D10">
-        <v>0.168227884032713</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01544553049019422</v>
+      </c>
+      <c r="E10">
+        <v>0.02111072163391418</v>
+      </c>
+      <c r="F10">
+        <v>-0.0228508143850117</v>
+      </c>
+      <c r="G10">
+        <v>0.05339429818849865</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.01420224690818025</v>
+        <v>0.03518587502951021</v>
       </c>
       <c r="C11">
-        <v>-0.005811946883395305</v>
+        <v>-0.05221601431184258</v>
       </c>
       <c r="D11">
-        <v>-0.04942603381166243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002720821500919214</v>
+      </c>
+      <c r="E11">
+        <v>0.02138711530401899</v>
+      </c>
+      <c r="F11">
+        <v>0.01490121702540655</v>
+      </c>
+      <c r="G11">
+        <v>0.08719584284282582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.01680894945660421</v>
+        <v>0.03744277460251474</v>
       </c>
       <c r="C12">
-        <v>-0.001244648197028342</v>
+        <v>-0.047260167905154</v>
       </c>
       <c r="D12">
-        <v>-0.04512977556485381</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006738828539315313</v>
+      </c>
+      <c r="E12">
+        <v>0.01077169861855825</v>
+      </c>
+      <c r="F12">
+        <v>0.001937601821541905</v>
+      </c>
+      <c r="G12">
+        <v>0.08282277746531014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01019284968871304</v>
+        <v>0.01277703186388522</v>
       </c>
       <c r="C13">
-        <v>0.01826820585410467</v>
+        <v>-0.03953209007809989</v>
       </c>
       <c r="D13">
-        <v>-0.02741827203260384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02821077319901626</v>
+      </c>
+      <c r="E13">
+        <v>0.05166894766532442</v>
+      </c>
+      <c r="F13">
+        <v>-0.01213229988510386</v>
+      </c>
+      <c r="G13">
+        <v>0.1441081058112756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.001167832545654986</v>
+        <v>0.009958752985758438</v>
       </c>
       <c r="C14">
-        <v>0.006566951939735451</v>
+        <v>-0.02745551126736925</v>
       </c>
       <c r="D14">
-        <v>-0.02076436541215033</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01073345624725753</v>
+      </c>
+      <c r="E14">
+        <v>0.01289574383299755</v>
+      </c>
+      <c r="F14">
+        <v>-0.00670501319054656</v>
+      </c>
+      <c r="G14">
+        <v>0.1137241658402586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.01378826485291118</v>
+        <v>0.03381444949264075</v>
       </c>
       <c r="C16">
-        <v>-0.005132201729463581</v>
+        <v>-0.04518024107202957</v>
       </c>
       <c r="D16">
-        <v>-0.03706316069762617</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002267041059414848</v>
+      </c>
+      <c r="E16">
+        <v>0.01767980316776254</v>
+      </c>
+      <c r="F16">
+        <v>-0.004636947495416992</v>
+      </c>
+      <c r="G16">
+        <v>0.09101115096897688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01662607726394762</v>
+        <v>0.02083579085908343</v>
       </c>
       <c r="C19">
-        <v>0.006235066982871157</v>
+        <v>-0.04821908484640358</v>
       </c>
       <c r="D19">
-        <v>-0.04760159892992705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02049180977061319</v>
+      </c>
+      <c r="E19">
+        <v>0.08776833728693272</v>
+      </c>
+      <c r="F19">
+        <v>-0.005740944824356354</v>
+      </c>
+      <c r="G19">
+        <v>0.1428605493965859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.003033625360431071</v>
+        <v>0.01487299490972434</v>
       </c>
       <c r="C20">
-        <v>0.009042793148765011</v>
+        <v>-0.04090091856919812</v>
       </c>
       <c r="D20">
-        <v>-0.03178650099928861</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01521068001955437</v>
+      </c>
+      <c r="E20">
+        <v>0.04204502317933339</v>
+      </c>
+      <c r="F20">
+        <v>-0.02370671750072376</v>
+      </c>
+      <c r="G20">
+        <v>0.1153782330773371</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-1.630730745131947e-05</v>
+        <v>0.009673235158491042</v>
       </c>
       <c r="C21">
-        <v>0.01343286821243687</v>
+        <v>-0.03755385399184984</v>
       </c>
       <c r="D21">
-        <v>-0.01824256009264553</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02011289719238694</v>
+      </c>
+      <c r="E21">
+        <v>0.05095666133316996</v>
+      </c>
+      <c r="F21">
+        <v>-0.01311119205549953</v>
+      </c>
+      <c r="G21">
+        <v>0.1433980849470545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001112340090993358</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.00681916210476114</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002302771684284656</v>
+      </c>
+      <c r="E22">
+        <v>0.01814389442308493</v>
+      </c>
+      <c r="F22">
+        <v>0.005796039335205535</v>
+      </c>
+      <c r="G22">
+        <v>0.0050238326022044</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001121978221840256</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006786488922642342</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002298595691884264</v>
+      </c>
+      <c r="E23">
+        <v>0.01815664371159777</v>
+      </c>
+      <c r="F23">
+        <v>0.005587214143109034</v>
+      </c>
+      <c r="G23">
+        <v>0.004863733654254727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.007188471434418351</v>
+        <v>0.02916891228847373</v>
       </c>
       <c r="C24">
-        <v>0.00156646749423613</v>
+        <v>-0.04894587365205365</v>
       </c>
       <c r="D24">
-        <v>-0.04188233392516048</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007382244529062039</v>
+      </c>
+      <c r="E24">
+        <v>0.01647347724246038</v>
+      </c>
+      <c r="F24">
+        <v>0.006371292680235378</v>
+      </c>
+      <c r="G24">
+        <v>0.09070974801078088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.02338280647755482</v>
+        <v>0.04228573806696997</v>
       </c>
       <c r="C25">
-        <v>0.001284239429888424</v>
+        <v>-0.05663620170549846</v>
       </c>
       <c r="D25">
-        <v>-0.05351916524443662</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01149182922679887</v>
+      </c>
+      <c r="E25">
+        <v>0.00781571215800712</v>
+      </c>
+      <c r="F25">
+        <v>0.004464936856625698</v>
+      </c>
+      <c r="G25">
+        <v>0.09745657276893945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.005022258122489018</v>
+        <v>0.01461211578632059</v>
       </c>
       <c r="C26">
-        <v>0.02181253535769351</v>
+        <v>-0.0110122111640298</v>
       </c>
       <c r="D26">
-        <v>0.001174898632550212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02423301365620399</v>
+      </c>
+      <c r="E26">
+        <v>0.008775176467683315</v>
+      </c>
+      <c r="F26">
+        <v>-0.006364209506919859</v>
+      </c>
+      <c r="G26">
+        <v>0.08458139622283593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1696219366995479</v>
+        <v>0.1292938184267271</v>
       </c>
       <c r="C28">
-        <v>-0.03907303122026917</v>
+        <v>0.2424450058410228</v>
       </c>
       <c r="D28">
-        <v>0.1986905417020549</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006977806233525456</v>
+      </c>
+      <c r="E28">
+        <v>0.001988558412915383</v>
+      </c>
+      <c r="F28">
+        <v>-0.02259566142362156</v>
+      </c>
+      <c r="G28">
+        <v>0.04830952400733131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007906734139850035</v>
+        <v>0.00939330793880769</v>
       </c>
       <c r="C29">
-        <v>0.0039570874185954</v>
+        <v>-0.02320928628898038</v>
       </c>
       <c r="D29">
-        <v>-0.01742936425404619</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009586876553912342</v>
+      </c>
+      <c r="E29">
+        <v>0.005545199500358145</v>
+      </c>
+      <c r="F29">
+        <v>-0.01217402769611033</v>
+      </c>
+      <c r="G29">
+        <v>0.1030354528094418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02719056497046438</v>
+        <v>0.0394760141123628</v>
       </c>
       <c r="C30">
-        <v>0.01244819139281682</v>
+        <v>-0.06645730839525306</v>
       </c>
       <c r="D30">
-        <v>-0.09031469296173553</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0302028307738662</v>
+      </c>
+      <c r="E30">
+        <v>0.07041947095869612</v>
+      </c>
+      <c r="F30">
+        <v>0.02269727141044692</v>
+      </c>
+      <c r="G30">
+        <v>0.1296947655079788</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.0260572138299553</v>
+        <v>0.05352190539819097</v>
       </c>
       <c r="C31">
-        <v>-0.004327186443778389</v>
+        <v>-0.04004819607797887</v>
       </c>
       <c r="D31">
-        <v>-0.01865921709086347</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003949701852821913</v>
+      </c>
+      <c r="E31">
+        <v>-0.003110046494103427</v>
+      </c>
+      <c r="F31">
+        <v>-0.03626238342474791</v>
+      </c>
+      <c r="G31">
+        <v>0.09821842192046537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.01299963912844488</v>
+        <v>0.001973846122482969</v>
       </c>
       <c r="C32">
-        <v>-0.01283239803668334</v>
+        <v>-0.02137952610965613</v>
       </c>
       <c r="D32">
-        <v>-0.02420089839389555</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.001676812891299928</v>
+      </c>
+      <c r="E32">
+        <v>0.04733951536638753</v>
+      </c>
+      <c r="F32">
+        <v>0.03182510836955437</v>
+      </c>
+      <c r="G32">
+        <v>0.08194307422707912</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01400626630761976</v>
+        <v>0.02742065433689099</v>
       </c>
       <c r="C33">
-        <v>0.005326893493892995</v>
+        <v>-0.05002937790896578</v>
       </c>
       <c r="D33">
-        <v>-0.04890459692992063</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01709013023286182</v>
+      </c>
+      <c r="E33">
+        <v>0.05506786542537969</v>
+      </c>
+      <c r="F33">
+        <v>0.00551364419309796</v>
+      </c>
+      <c r="G33">
+        <v>0.1622059409320214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.02618794416783581</v>
+        <v>0.0409831452975025</v>
       </c>
       <c r="C34">
-        <v>-0.01678901821055282</v>
+        <v>-0.0594156829967302</v>
       </c>
       <c r="D34">
-        <v>-0.05273998610791358</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004208770769642028</v>
+      </c>
+      <c r="E34">
+        <v>0.01347759655911837</v>
+      </c>
+      <c r="F34">
+        <v>0.01806267848682479</v>
+      </c>
+      <c r="G34">
+        <v>0.09138404328094789</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.005777350507181894</v>
+        <v>0.0160867686355719</v>
       </c>
       <c r="C36">
-        <v>0.009452826268166162</v>
+        <v>-0.009840534036099371</v>
       </c>
       <c r="D36">
-        <v>0.001977960805421028</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01294198548346778</v>
+      </c>
+      <c r="E36">
+        <v>0.01057014553050054</v>
+      </c>
+      <c r="F36">
+        <v>-0.009067358946449116</v>
+      </c>
+      <c r="G36">
+        <v>0.0935780811264902</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02113174441654908</v>
+        <v>0.03251907500165784</v>
       </c>
       <c r="C38">
-        <v>-0.01577561719176194</v>
+        <v>-0.02894838569009715</v>
       </c>
       <c r="D38">
-        <v>-0.02105813206277852</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007623918941615396</v>
+      </c>
+      <c r="E38">
+        <v>0.006288015013942588</v>
+      </c>
+      <c r="F38">
+        <v>-0.0185032818415314</v>
+      </c>
+      <c r="G38">
+        <v>0.08734435640920125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.002997360578921867</v>
+        <v>0.03652725693080678</v>
       </c>
       <c r="C39">
-        <v>0.004422821062789553</v>
+        <v>-0.07904902024044938</v>
       </c>
       <c r="D39">
-        <v>-0.09031688312242611</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0124339951337511</v>
+      </c>
+      <c r="E39">
+        <v>0.03205911940243344</v>
+      </c>
+      <c r="F39">
+        <v>0.01708120253784793</v>
+      </c>
+      <c r="G39">
+        <v>0.09508237234493337</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01895107267585449</v>
+        <v>0.01380930338300098</v>
       </c>
       <c r="C40">
-        <v>0.003485829848004303</v>
+        <v>-0.03783238852497844</v>
       </c>
       <c r="D40">
-        <v>-0.0288809414912922</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01535131626591657</v>
+      </c>
+      <c r="E40">
+        <v>0.0346812225963174</v>
+      </c>
+      <c r="F40">
+        <v>-0.01577899570128304</v>
+      </c>
+      <c r="G40">
+        <v>0.1259415296549783</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01084707329452202</v>
+        <v>0.02065702080601924</v>
       </c>
       <c r="C41">
-        <v>0.0004512241852158749</v>
+        <v>-0.003138638641362917</v>
       </c>
       <c r="D41">
-        <v>0.006271896372853789</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004937779080520607</v>
+      </c>
+      <c r="E41">
+        <v>0.01025475962982897</v>
+      </c>
+      <c r="F41">
+        <v>-0.01530942901674699</v>
+      </c>
+      <c r="G41">
+        <v>0.08936789186651715</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.01456422686925521</v>
+        <v>0.005295353662667225</v>
       </c>
       <c r="C42">
-        <v>0.08553289555951959</v>
+        <v>-0.02871955599571913</v>
       </c>
       <c r="D42">
-        <v>-0.06425553298845782</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08487215927890158</v>
+      </c>
+      <c r="E42">
+        <v>-0.007485495999800077</v>
+      </c>
+      <c r="F42">
+        <v>-0.03808582610597824</v>
+      </c>
+      <c r="G42">
+        <v>-0.02374630672992466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.0140881133538484</v>
+        <v>0.03558679235598607</v>
       </c>
       <c r="C43">
-        <v>-0.0001203154381825301</v>
+        <v>-0.01794337573938388</v>
       </c>
       <c r="D43">
-        <v>-0.001866459039348012</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006341737744913113</v>
+      </c>
+      <c r="E43">
+        <v>0.02571306379716897</v>
+      </c>
+      <c r="F43">
+        <v>-0.01179585002525825</v>
+      </c>
+      <c r="G43">
+        <v>0.1191381756989233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.005536795073204964</v>
+        <v>0.01299539001055487</v>
       </c>
       <c r="C44">
-        <v>-0.0008643552155354963</v>
+        <v>-0.05692768451590127</v>
       </c>
       <c r="D44">
-        <v>-0.05022304001466495</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.00760954552955254</v>
+      </c>
+      <c r="E44">
+        <v>0.0319036002521794</v>
+      </c>
+      <c r="F44">
+        <v>-0.0155709985847552</v>
+      </c>
+      <c r="G44">
+        <v>0.1147665962028635</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0003561286434146294</v>
+        <v>0.008840935692297882</v>
       </c>
       <c r="C46">
-        <v>0.01081191402053711</v>
+        <v>-0.01544347943260174</v>
       </c>
       <c r="D46">
-        <v>0.002396970796925074</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01280207770558657</v>
+      </c>
+      <c r="E46">
+        <v>0.000110978689548955</v>
+      </c>
+      <c r="F46">
+        <v>-0.01537581687908763</v>
+      </c>
+      <c r="G46">
+        <v>0.1087572470988423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.04355331048832166</v>
+        <v>0.0793147669341291</v>
       </c>
       <c r="C47">
-        <v>-0.01873197142993308</v>
+        <v>-0.07144320651392151</v>
       </c>
       <c r="D47">
-        <v>-0.06197808858128721</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004907234404262671</v>
+      </c>
+      <c r="E47">
+        <v>-0.0104011430223772</v>
+      </c>
+      <c r="F47">
+        <v>-0.04912346203408396</v>
+      </c>
+      <c r="G47">
+        <v>0.08668730618092285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.003508567206223867</v>
+        <v>0.01956274397718006</v>
       </c>
       <c r="C48">
-        <v>-6.681547114822904e-05</v>
+        <v>-0.01307325061954819</v>
       </c>
       <c r="D48">
-        <v>-0.0008891128997663051</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002487365468248028</v>
+      </c>
+      <c r="E48">
+        <v>0.005113573670454844</v>
+      </c>
+      <c r="F48">
+        <v>-0.02133476649404066</v>
+      </c>
+      <c r="G48">
+        <v>0.1027087287201784</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.04614263697983906</v>
+        <v>0.07435875310107726</v>
       </c>
       <c r="C50">
-        <v>-0.01759217962767438</v>
+        <v>-0.07342496270356223</v>
       </c>
       <c r="D50">
-        <v>-0.05173499600599749</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002028255331092892</v>
+      </c>
+      <c r="E50">
+        <v>-0.01136806019706191</v>
+      </c>
+      <c r="F50">
+        <v>-0.0508227742004835</v>
+      </c>
+      <c r="G50">
+        <v>0.09787114765432407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.003966298641978765</v>
+        <v>0.01223609477051129</v>
       </c>
       <c r="C51">
-        <v>0.004329735501610741</v>
+        <v>-0.03683552495513766</v>
       </c>
       <c r="D51">
-        <v>-0.02762298766712936</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01151621991561988</v>
+      </c>
+      <c r="E51">
+        <v>0.03393783088096885</v>
+      </c>
+      <c r="F51">
+        <v>0.01167826794589653</v>
+      </c>
+      <c r="G51">
+        <v>0.122380116891845</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.06479999638493385</v>
+        <v>0.08116271939010876</v>
       </c>
       <c r="C53">
-        <v>-0.0251297495428873</v>
+        <v>-0.08426089796700781</v>
       </c>
       <c r="D53">
-        <v>-0.08680499143744219</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003730943240558962</v>
+      </c>
+      <c r="E53">
+        <v>-0.03213972711578598</v>
+      </c>
+      <c r="F53">
+        <v>-0.0542523548639403</v>
+      </c>
+      <c r="G53">
+        <v>0.09020382808069606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0166014932644918</v>
+        <v>0.03252270428887848</v>
       </c>
       <c r="C54">
-        <v>-0.007937880349659652</v>
+        <v>-0.0178040910269289</v>
       </c>
       <c r="D54">
-        <v>0.001601345207816744</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0007330252656124063</v>
+      </c>
+      <c r="E54">
+        <v>0.01978167386389948</v>
+      </c>
+      <c r="F54">
+        <v>-0.009451317311076726</v>
+      </c>
+      <c r="G54">
+        <v>0.1100626784739988</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.04084139009863495</v>
+        <v>0.07370685938720671</v>
       </c>
       <c r="C55">
-        <v>-0.0178442873453412</v>
+        <v>-0.06798179814773196</v>
       </c>
       <c r="D55">
-        <v>-0.06762056036479053</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005333332368931691</v>
+      </c>
+      <c r="E55">
+        <v>-0.03077744058141848</v>
+      </c>
+      <c r="F55">
+        <v>-0.05218604684390769</v>
+      </c>
+      <c r="G55">
+        <v>0.06770659347605099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.09613664979350689</v>
+        <v>0.1358584718562603</v>
       </c>
       <c r="C56">
-        <v>-0.04210350351355435</v>
+        <v>-0.1067903856147279</v>
       </c>
       <c r="D56">
-        <v>-0.1213264551579656</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01291033748279123</v>
+      </c>
+      <c r="E56">
+        <v>-0.0394444665994945</v>
+      </c>
+      <c r="F56">
+        <v>-0.06635485232471233</v>
+      </c>
+      <c r="G56">
+        <v>0.04565561472387873</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01290870818221544</v>
+        <v>0.003939457342439049</v>
       </c>
       <c r="C57">
-        <v>0.01817530413791484</v>
+        <v>-0.004620390328830155</v>
       </c>
       <c r="D57">
-        <v>-0.01466050241470067</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02276877219991652</v>
+      </c>
+      <c r="E57">
+        <v>0.02462247184693509</v>
+      </c>
+      <c r="F57">
+        <v>0.0005980356617213177</v>
+      </c>
+      <c r="G57">
+        <v>0.01783396605728339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.02148364307691909</v>
+        <v>0.04376471547243737</v>
       </c>
       <c r="C58">
-        <v>-0.01182040735192172</v>
+        <v>-0.03886752607793343</v>
       </c>
       <c r="D58">
-        <v>-0.100763738949105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02900660101463796</v>
+      </c>
+      <c r="E58">
+        <v>0.8122068851595289</v>
+      </c>
+      <c r="F58">
+        <v>-0.4855192106466923</v>
+      </c>
+      <c r="G58">
+        <v>-0.250951386609393</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2060554589713903</v>
+        <v>0.1601989373727088</v>
       </c>
       <c r="C59">
-        <v>-0.05685075182187208</v>
+        <v>0.2067627902111542</v>
       </c>
       <c r="D59">
-        <v>0.1804142002755555</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01128428380924935</v>
+      </c>
+      <c r="E59">
+        <v>0.02245435432229312</v>
+      </c>
+      <c r="F59">
+        <v>-0.005120235548411341</v>
+      </c>
+      <c r="G59">
+        <v>0.0346599894493026</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2920966954366057</v>
+        <v>0.2870365473505515</v>
       </c>
       <c r="C60">
-        <v>-0.08193252176831307</v>
+        <v>-0.1143322169686216</v>
       </c>
       <c r="D60">
-        <v>-0.2016035922655754</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01493040410153343</v>
+      </c>
+      <c r="E60">
+        <v>0.089048723047529</v>
+      </c>
+      <c r="F60">
+        <v>0.3223420113307809</v>
+      </c>
+      <c r="G60">
+        <v>-0.1628524717582431</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.01104247644285402</v>
+        <v>0.03910154214580601</v>
       </c>
       <c r="C61">
-        <v>-0.003253831010505688</v>
+        <v>-0.06430284607832003</v>
       </c>
       <c r="D61">
-        <v>-0.06960380726568283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006229064809826253</v>
+      </c>
+      <c r="E61">
+        <v>0.03074143785935107</v>
+      </c>
+      <c r="F61">
+        <v>0.009961508107581217</v>
+      </c>
+      <c r="G61">
+        <v>0.09957927111963988</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.00547760941215761</v>
+        <v>0.01445990135642739</v>
       </c>
       <c r="C63">
-        <v>0.004960469007151499</v>
+        <v>-0.03032096225802958</v>
       </c>
       <c r="D63">
-        <v>-0.02798759990531723</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008879105703612354</v>
+      </c>
+      <c r="E63">
+        <v>0.005545468595568045</v>
+      </c>
+      <c r="F63">
+        <v>-0.01501754877552927</v>
+      </c>
+      <c r="G63">
+        <v>0.09464296224852897</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.03284909747953104</v>
+        <v>0.04983074485024746</v>
       </c>
       <c r="C64">
-        <v>-0.006704779505264916</v>
+        <v>-0.04632995547711068</v>
       </c>
       <c r="D64">
-        <v>-0.03954684441914365</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006040120055727217</v>
+      </c>
+      <c r="E64">
+        <v>0.005273036999895436</v>
+      </c>
+      <c r="F64">
+        <v>0.00591188189118478</v>
+      </c>
+      <c r="G64">
+        <v>0.09887629738192606</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.05683687974051465</v>
+        <v>0.07365328163678764</v>
       </c>
       <c r="C65">
-        <v>-0.005066133042675893</v>
+        <v>-0.06018673164717981</v>
       </c>
       <c r="D65">
-        <v>-0.09244361526436347</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01758633372158148</v>
+      </c>
+      <c r="E65">
+        <v>0.04881746573229408</v>
+      </c>
+      <c r="F65">
+        <v>0.01203128775530837</v>
+      </c>
+      <c r="G65">
+        <v>0.04041430724585704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.009514872113964816</v>
+        <v>0.04826461820495329</v>
       </c>
       <c r="C66">
-        <v>4.422591864702576e-05</v>
+        <v>-0.1060043886250736</v>
       </c>
       <c r="D66">
-        <v>-0.1381115175314291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01310405351365136</v>
+      </c>
+      <c r="E66">
+        <v>0.05268899593009214</v>
+      </c>
+      <c r="F66">
+        <v>0.02571432821742894</v>
+      </c>
+      <c r="G66">
+        <v>0.1043146346127685</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04686965866529271</v>
+        <v>0.05581987145274455</v>
       </c>
       <c r="C67">
-        <v>-0.02094498840406385</v>
+        <v>-0.03424987861145254</v>
       </c>
       <c r="D67">
-        <v>-0.03522896892514264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006253039501102741</v>
+      </c>
+      <c r="E67">
+        <v>-0.004674223517107032</v>
+      </c>
+      <c r="F67">
+        <v>-0.01439941528224875</v>
+      </c>
+      <c r="G67">
+        <v>0.07419761145147943</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1974968866333303</v>
+        <v>0.1589677658696355</v>
       </c>
       <c r="C68">
-        <v>-0.03163780143477035</v>
+        <v>0.2704610668234878</v>
       </c>
       <c r="D68">
-        <v>0.2304413548500803</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.004553615766698433</v>
+      </c>
+      <c r="E68">
+        <v>-0.002140873052978651</v>
+      </c>
+      <c r="F68">
+        <v>-0.04532973529808598</v>
+      </c>
+      <c r="G68">
+        <v>0.01958169021034844</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04828197630026527</v>
+        <v>0.0817446038799978</v>
       </c>
       <c r="C69">
-        <v>-0.02358456569411577</v>
+        <v>-0.07412077800165025</v>
       </c>
       <c r="D69">
-        <v>-0.05459238142212387</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008812779848053025</v>
+      </c>
+      <c r="E69">
+        <v>-0.02353807508654765</v>
+      </c>
+      <c r="F69">
+        <v>-0.02971704412021476</v>
+      </c>
+      <c r="G69">
+        <v>0.09921280029220766</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1759750776029513</v>
+        <v>0.1453611848825871</v>
       </c>
       <c r="C71">
-        <v>-0.03869091746865473</v>
+        <v>0.2296777330645034</v>
       </c>
       <c r="D71">
-        <v>0.1784196850263781</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003433596542927268</v>
+      </c>
+      <c r="E71">
+        <v>0.02973909245788991</v>
+      </c>
+      <c r="F71">
+        <v>-0.02778079947952286</v>
+      </c>
+      <c r="G71">
+        <v>0.06484332358987048</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.0508329652823996</v>
+        <v>0.08673873472454925</v>
       </c>
       <c r="C72">
-        <v>-0.02730524794855414</v>
+        <v>-0.06928470124206207</v>
       </c>
       <c r="D72">
-        <v>-0.0770854481911073</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008464654537930993</v>
+      </c>
+      <c r="E72">
+        <v>-0.004829502304168298</v>
+      </c>
+      <c r="F72">
+        <v>0.03428292010263485</v>
+      </c>
+      <c r="G72">
+        <v>0.09114200295681953</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3649667225810144</v>
+        <v>0.3709974282278702</v>
       </c>
       <c r="C73">
-        <v>-0.09942589899805203</v>
+        <v>-0.1207017938761586</v>
       </c>
       <c r="D73">
-        <v>-0.2730239237925883</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02691080281265889</v>
+      </c>
+      <c r="E73">
+        <v>0.2171333711988189</v>
+      </c>
+      <c r="F73">
+        <v>0.5484522995793559</v>
+      </c>
+      <c r="G73">
+        <v>-0.309747507812323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08401615935277483</v>
+        <v>0.1043470897773841</v>
       </c>
       <c r="C74">
-        <v>-0.03858001078194542</v>
+        <v>-0.1091784611540442</v>
       </c>
       <c r="D74">
-        <v>-0.1336059047133316</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009303784244149372</v>
+      </c>
+      <c r="E74">
+        <v>-0.01376033488743602</v>
+      </c>
+      <c r="F74">
+        <v>-0.0589051390515169</v>
+      </c>
+      <c r="G74">
+        <v>0.07425064863052208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.188379839828509</v>
+        <v>0.246616520284343</v>
       </c>
       <c r="C75">
-        <v>-0.08127634320807713</v>
+        <v>-0.1522769317490829</v>
       </c>
       <c r="D75">
-        <v>-0.1997486870039251</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0318669325668968</v>
+      </c>
+      <c r="E75">
+        <v>-0.099323739527424</v>
+      </c>
+      <c r="F75">
+        <v>-0.1467142610281527</v>
+      </c>
+      <c r="G75">
+        <v>-0.01046197453152907</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.08983785735366731</v>
+        <v>0.1150510109363213</v>
       </c>
       <c r="C76">
-        <v>-0.04635527175056063</v>
+        <v>-0.1125351866682464</v>
       </c>
       <c r="D76">
-        <v>-0.1291047692888045</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01769202330735154</v>
+      </c>
+      <c r="E76">
+        <v>-0.04297982543808277</v>
+      </c>
+      <c r="F76">
+        <v>-0.08723978550220197</v>
+      </c>
+      <c r="G76">
+        <v>0.05573273194770908</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.03461630413554066</v>
+        <v>0.07141419030110628</v>
       </c>
       <c r="C77">
-        <v>-0.005040857266600453</v>
+        <v>-0.0568922043119122</v>
       </c>
       <c r="D77">
-        <v>-0.06938628803761088</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01052010073970127</v>
+      </c>
+      <c r="E77">
+        <v>0.05279421626057337</v>
+      </c>
+      <c r="F77">
+        <v>-0.002671905075598756</v>
+      </c>
+      <c r="G77">
+        <v>0.07148329872796984</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.02796595066243797</v>
+        <v>0.0416845142810184</v>
       </c>
       <c r="C78">
-        <v>-0.00741772036318974</v>
+        <v>-0.05215175940144915</v>
       </c>
       <c r="D78">
-        <v>-0.0648522286030342</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.007436456261862054</v>
+      </c>
+      <c r="E78">
+        <v>0.04216814033300575</v>
+      </c>
+      <c r="F78">
+        <v>0.03019101558429336</v>
+      </c>
+      <c r="G78">
+        <v>0.1039534075246961</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.001176143496771903</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0007779843090718034</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0005385949314405217</v>
+      </c>
+      <c r="E79">
+        <v>0.005906422069224637</v>
+      </c>
+      <c r="F79">
+        <v>2.326998024093445e-05</v>
+      </c>
+      <c r="G79">
+        <v>0.003670669194816436</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04266050185898274</v>
+        <v>0.0417943976585052</v>
       </c>
       <c r="C80">
-        <v>-0.004265314830054014</v>
+        <v>-0.05306334132321523</v>
       </c>
       <c r="D80">
-        <v>-0.07133023073281247</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01406577309750083</v>
+      </c>
+      <c r="E80">
+        <v>0.03162557969696685</v>
+      </c>
+      <c r="F80">
+        <v>-0.0012993234019921</v>
+      </c>
+      <c r="G80">
+        <v>0.05048068540574777</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.09994523431086154</v>
+        <v>0.1380280801058172</v>
       </c>
       <c r="C81">
-        <v>-0.04280309782452427</v>
+        <v>-0.09596652689639505</v>
       </c>
       <c r="D81">
-        <v>-0.10244622760099</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01550838980319441</v>
+      </c>
+      <c r="E81">
+        <v>-0.05944872858236524</v>
+      </c>
+      <c r="F81">
+        <v>-0.113301456024075</v>
+      </c>
+      <c r="G81">
+        <v>0.02564060425343581</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.02060488456842527</v>
+        <v>0.147864894410326</v>
       </c>
       <c r="C82">
-        <v>-0.007082550259146229</v>
+        <v>-0.0889580402061879</v>
       </c>
       <c r="D82">
-        <v>-0.02084066584533351</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01343987253784944</v>
+      </c>
+      <c r="E82">
+        <v>-0.1306090107547147</v>
+      </c>
+      <c r="F82">
+        <v>-0.0432030744711268</v>
+      </c>
+      <c r="G82">
+        <v>0.05908439291530284</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01903529047021717</v>
+        <v>0.03361834859467304</v>
       </c>
       <c r="C83">
-        <v>-0.002266945202401172</v>
+        <v>-0.03154266429108043</v>
       </c>
       <c r="D83">
-        <v>-0.02113021477246489</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006803079598540986</v>
+      </c>
+      <c r="E83">
+        <v>0.03474111956681136</v>
+      </c>
+      <c r="F83">
+        <v>0.03004050908248151</v>
+      </c>
+      <c r="G83">
+        <v>0.05939997247553851</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1826449764525761</v>
+        <v>0.2081042162309646</v>
       </c>
       <c r="C85">
-        <v>-0.06763879522214616</v>
+        <v>-0.1463810616343757</v>
       </c>
       <c r="D85">
-        <v>-0.208725541991704</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01748125905873902</v>
+      </c>
+      <c r="E85">
+        <v>-0.1140074866978953</v>
+      </c>
+      <c r="F85">
+        <v>-0.08114420820084374</v>
+      </c>
+      <c r="G85">
+        <v>-0.04829773405331774</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01300171226803562</v>
+        <v>0.01339956910286329</v>
       </c>
       <c r="C86">
-        <v>0.001111216503425816</v>
+        <v>-0.02793412279910134</v>
       </c>
       <c r="D86">
-        <v>-0.02342361417236784</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0128102852791335</v>
+      </c>
+      <c r="E86">
+        <v>0.0648020439397665</v>
+      </c>
+      <c r="F86">
+        <v>0.02185448572594787</v>
+      </c>
+      <c r="G86">
+        <v>0.1831800111465411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.00548580469282775</v>
+        <v>0.02143247507103222</v>
       </c>
       <c r="C87">
-        <v>0.009169608130593931</v>
+        <v>-0.01649019681572343</v>
       </c>
       <c r="D87">
-        <v>-0.02753551547642249</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01314595768254877</v>
+      </c>
+      <c r="E87">
+        <v>0.1002811320304499</v>
+      </c>
+      <c r="F87">
+        <v>-0.01787643803664572</v>
+      </c>
+      <c r="G87">
+        <v>0.1225246007256298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05980676337026766</v>
+        <v>0.09121942246003932</v>
       </c>
       <c r="C88">
-        <v>0.003773030517936406</v>
+        <v>-0.07124712973773367</v>
       </c>
       <c r="D88">
-        <v>-0.0656993163961327</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02255407214340808</v>
+      </c>
+      <c r="E88">
+        <v>-0.002794513968704516</v>
+      </c>
+      <c r="F88">
+        <v>-0.02189031527359745</v>
+      </c>
+      <c r="G88">
+        <v>0.09937224148853566</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3055873553642727</v>
+        <v>0.2345186808971415</v>
       </c>
       <c r="C89">
-        <v>-0.06163023703320731</v>
+        <v>0.3650898897155154</v>
       </c>
       <c r="D89">
-        <v>0.3087839431803073</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.000119499170813146</v>
+      </c>
+      <c r="E89">
+        <v>-0.02575803736000844</v>
+      </c>
+      <c r="F89">
+        <v>-0.01924427339858959</v>
+      </c>
+      <c r="G89">
+        <v>0.07693821082237198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2605493882262402</v>
+        <v>0.2122263478487146</v>
       </c>
       <c r="C90">
-        <v>-0.05592956293327352</v>
+        <v>0.3141235508896694</v>
       </c>
       <c r="D90">
-        <v>0.2759468976153855</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004890263506957307</v>
+      </c>
+      <c r="E90">
+        <v>-0.007943133882653663</v>
+      </c>
+      <c r="F90">
+        <v>-0.04662640338375328</v>
+      </c>
+      <c r="G90">
+        <v>0.0492970961321795</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1489010250046205</v>
+        <v>0.1847930982999881</v>
       </c>
       <c r="C91">
-        <v>-0.0654453506321665</v>
+        <v>-0.136844410853998</v>
       </c>
       <c r="D91">
-        <v>-0.1385012394224749</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02299882572579903</v>
+      </c>
+      <c r="E91">
+        <v>-0.08324601021381346</v>
+      </c>
+      <c r="F91">
+        <v>-0.114020282039864</v>
+      </c>
+      <c r="G91">
+        <v>0.03043611703712295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2357168170564209</v>
+        <v>0.199710555641818</v>
       </c>
       <c r="C92">
-        <v>-0.08662053090686754</v>
+        <v>0.2589560444101925</v>
       </c>
       <c r="D92">
-        <v>0.2214870054491922</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03890616963906297</v>
+      </c>
+      <c r="E92">
+        <v>0.02135658581868614</v>
+      </c>
+      <c r="F92">
+        <v>-0.05777881632365199</v>
+      </c>
+      <c r="G92">
+        <v>0.09402861586626195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2766444726306683</v>
+        <v>0.2349584057808125</v>
       </c>
       <c r="C93">
-        <v>-0.06742562166310459</v>
+        <v>0.3081745628882455</v>
       </c>
       <c r="D93">
-        <v>0.2492814456955109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0111279691941542</v>
+      </c>
+      <c r="E93">
+        <v>0.002966632747395984</v>
+      </c>
+      <c r="F93">
+        <v>-0.03920370685637324</v>
+      </c>
+      <c r="G93">
+        <v>0.06126064923924703</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.21075210673522</v>
+        <v>0.3208610140239624</v>
       </c>
       <c r="C94">
-        <v>-0.0674916869395422</v>
+        <v>-0.193387496120299</v>
       </c>
       <c r="D94">
-        <v>-0.2123764489020413</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02486285525899809</v>
+      </c>
+      <c r="E94">
+        <v>-0.3371041516034631</v>
+      </c>
+      <c r="F94">
+        <v>-0.4225835734755291</v>
+      </c>
+      <c r="G94">
+        <v>-0.3934428363694093</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.06563734977576217</v>
+        <v>0.09599483766851213</v>
       </c>
       <c r="C95">
-        <v>-0.03372611276331722</v>
+        <v>-0.08354148940729333</v>
       </c>
       <c r="D95">
-        <v>-0.1446314436142401</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009465649310284204</v>
+      </c>
+      <c r="E95">
+        <v>0.1008798748745212</v>
+      </c>
+      <c r="F95">
+        <v>0.1613885718533074</v>
+      </c>
+      <c r="G95">
+        <v>0.00510443393519675</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1748459855757717</v>
+        <v>0.1893413525000536</v>
       </c>
       <c r="C98">
-        <v>-0.07099212653113843</v>
+        <v>-0.04854774609855525</v>
       </c>
       <c r="D98">
-        <v>-0.1037260367579683</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01032554097306394</v>
+      </c>
+      <c r="E98">
+        <v>0.1258755525755642</v>
+      </c>
+      <c r="F98">
+        <v>0.2110199528547141</v>
+      </c>
+      <c r="G98">
+        <v>-0.02952329797621753</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00756555147633024</v>
+        <v>0.009237404694410882</v>
       </c>
       <c r="C101">
-        <v>0.003896209903236684</v>
+        <v>-0.02309289846963066</v>
       </c>
       <c r="D101">
-        <v>-0.01765698705193338</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.00940811948944353</v>
+      </c>
+      <c r="E101">
+        <v>0.005120756627054839</v>
+      </c>
+      <c r="F101">
+        <v>-0.01306187885642078</v>
+      </c>
+      <c r="G101">
+        <v>0.1026238583465179</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.09716384429563804</v>
+        <v>0.117035503644424</v>
       </c>
       <c r="C102">
-        <v>-0.02776633289885477</v>
+        <v>-0.08511920708669321</v>
       </c>
       <c r="D102">
-        <v>-0.102631958086896</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.000531998183953131</v>
+      </c>
+      <c r="E102">
+        <v>-0.04148952607491549</v>
+      </c>
+      <c r="F102">
+        <v>-0.02615167823551713</v>
+      </c>
+      <c r="G102">
+        <v>0.01638376172215978</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.2744227042197053</v>
+        <v>0.02118320046209769</v>
       </c>
       <c r="C104">
-        <v>0.9521513427888345</v>
+        <v>0.03040109595633886</v>
       </c>
       <c r="D104">
-        <v>-0.0287629880413912</v>
+        <v>-0.9871669779908536</v>
+      </c>
+      <c r="E104">
+        <v>-0.07012481737895788</v>
+      </c>
+      <c r="F104">
+        <v>-0.02630631618470377</v>
+      </c>
+      <c r="G104">
+        <v>-0.04019117245871402</v>
       </c>
     </row>
   </sheetData>
